--- a/excel/Book1.xlsx
+++ b/excel/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amseiden/Documents/Mule /stagetrack_monitor/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A9F0A-12B1-3C4F-9BB0-251F590B55F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0E02EB-97BD-854E-9877-364F95D84901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4E7F8428-0E68-A043-B555-E609471E3501}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E7F8428-0E68-A043-B555-E609471E3501}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92AEFC-A0D8-8C4A-B520-E24780ACEE36}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,6 +443,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5942289013058</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
